--- a/upload_seed_data/data/origins/sample.NAT_021502.fi.xlsx
+++ b/upload_seed_data/data/origins/sample.NAT_021502.fi.xlsx
@@ -948,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1018,51 +1018,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
       <bottom style="thin">
         <color indexed="15"/>
       </bottom>
@@ -1087,7 +1042,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,15 +1115,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,13 +1133,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2731,7 +2677,7 @@
       <c r="H16" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="18">
         <v>5</v>
       </c>
       <c r="J16" t="s" s="12">
@@ -2758,7 +2704,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="22"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="16"/>
       <c r="K17" t="s" s="13">
         <v>39</v>
@@ -2793,7 +2739,7 @@
       <c r="H18" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="18">
         <v>6</v>
       </c>
       <c r="J18" t="s" s="20">
@@ -2820,7 +2766,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="21"/>
       <c r="K19" t="s" s="13">
         <v>51</v>
@@ -2841,7 +2787,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="21"/>
       <c r="K20" t="s" s="13">
         <v>52</v>
@@ -2862,7 +2808,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="23"/>
       <c r="K21" t="s" s="17">
         <v>53</v>
@@ -2897,7 +2843,7 @@
       <c r="H22" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="18">
         <v>7</v>
       </c>
       <c r="J22" t="s" s="12">
@@ -2924,7 +2870,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="26"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c r="K23" t="s" s="13">
         <v>57</v>
@@ -2945,7 +2891,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-      <c r="I24" s="26"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="16"/>
       <c r="K24" t="s" s="13">
         <v>58</v>
@@ -2966,7 +2912,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="25"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="16"/>
       <c r="K25" t="s" s="13">
         <v>59</v>
@@ -3001,7 +2947,7 @@
       <c r="H26" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="18">
         <v>8</v>
       </c>
       <c r="J26" t="s" s="12">
@@ -3028,7 +2974,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
-      <c r="I27" s="25"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="16"/>
       <c r="K27" t="s" s="17">
         <v>39</v>
@@ -3057,7 +3003,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
-      <c r="I28" s="24">
+      <c r="I28" s="18">
         <v>9</v>
       </c>
       <c r="J28" t="s" s="12">
@@ -3084,7 +3030,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
-      <c r="I29" s="25"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="16"/>
       <c r="K29" t="s" s="13">
         <v>39</v>
@@ -3231,7 +3177,7 @@
       <c r="J34" t="s" s="12">
         <v>72</v>
       </c>
-      <c r="K34" s="27">
+      <c r="K34" s="24">
         <v>3</v>
       </c>
       <c r="L34" s="9">
@@ -3254,7 +3200,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="27">
+      <c r="K35" s="24">
         <v>5</v>
       </c>
       <c r="L35" s="9">
@@ -3275,7 +3221,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="28">
+      <c r="K36" s="25">
         <v>7</v>
       </c>
       <c r="L36" s="9">
@@ -3296,7 +3242,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="27">
+      <c r="K37" s="24">
         <v>10</v>
       </c>
       <c r="L37" s="9">
@@ -3524,10 +3470,10 @@
       <c r="C46" t="s" s="10">
         <v>84</v>
       </c>
-      <c r="D46" t="s" s="29">
+      <c r="D46" t="s" s="26">
         <v>85</v>
       </c>
-      <c r="E46" t="s" s="29">
+      <c r="E46" t="s" s="26">
         <v>86</v>
       </c>
       <c r="F46" t="s" s="11">
@@ -3561,8 +3507,8 @@
       <c r="A47" s="14"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
@@ -3582,8 +3528,8 @@
       <c r="A48" s="14"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
@@ -3603,14 +3549,14 @@
       <c r="A49" s="14"/>
       <c r="B49" s="22"/>
       <c r="C49" s="15"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="16"/>
-      <c r="K49" t="s" s="31">
+      <c r="K49" t="s" s="28">
         <v>53</v>
       </c>
       <c r="L49" s="9">
@@ -3628,10 +3574,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="15"/>
-      <c r="D50" t="s" s="29">
+      <c r="D50" t="s" s="26">
         <v>85</v>
       </c>
-      <c r="E50" t="s" s="29">
+      <c r="E50" t="s" s="26">
         <v>86</v>
       </c>
       <c r="F50" t="s" s="11">
@@ -3665,8 +3611,8 @@
       <c r="A51" s="14"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="14"/>
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
@@ -3686,8 +3632,8 @@
       <c r="A52" s="14"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
@@ -3707,14 +3653,14 @@
       <c r="A53" s="14"/>
       <c r="B53" s="22"/>
       <c r="C53" s="15"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="16"/>
-      <c r="K53" t="s" s="31">
+      <c r="K53" t="s" s="28">
         <v>53</v>
       </c>
       <c r="L53" s="9">
@@ -3938,7 +3884,7 @@
       <c r="A62" s="9">
         <v>19</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="29">
         <v>2</v>
       </c>
       <c r="C62" s="15"/>
@@ -5574,7 +5520,9 @@
       <c r="K124" t="s" s="17">
         <v>192</v>
       </c>
-      <c r="L124" s="14"/>
+      <c r="L124" s="9">
+        <v>1</v>
+      </c>
       <c r="M124" s="14"/>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
@@ -5888,16 +5836,16 @@
       <c r="O136" s="14"/>
     </row>
     <row r="137" ht="20.45" customHeight="1">
-      <c r="A137" s="33"/>
-      <c r="B137" s="34"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
+      <c r="A137" s="30"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
-      <c r="J137" s="35"/>
+      <c r="J137" s="32"/>
       <c r="K137" t="s" s="17">
         <v>53</v>
       </c>

--- a/upload_seed_data/data/origins/sample.NAT_021502.fi.xlsx
+++ b/upload_seed_data/data/origins/sample.NAT_021502.fi.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>No</t>
   </si>
@@ -82,28 +82,31 @@
     <t>S24: 6 Gt, S24+: 8 Gt, S24 Ultra: 10 Gt</t>
   </si>
   <si>
+    <t>MULTIPLE_CHOICE</t>
+  </si>
+  <si>
+    <t>S24: 8 Gt, S24+: 8 Gt, S24 Ultra: 8 Gt</t>
+  </si>
+  <si>
+    <t>S24: 8 Gt, S24+: 10 Gt, S24 Ultra: 12 Gt</t>
+  </si>
+  <si>
+    <t>S24: 8 Gt, S24+: 12 Gt, S24 Ultra: 12 Gt</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Mikä on S24-puhelinten näytön huippukirkkausarvo?</t>
+  </si>
+  <si>
+    <t>1 600 nitiä</t>
+  </si>
+  <si>
     <t>SINGLE_CHOICE</t>
-  </si>
-  <si>
-    <t>S24: 8 Gt, S24+: 8 Gt, S24 Ultra: 8 Gt</t>
-  </si>
-  <si>
-    <t>S24: 8 Gt, S24+: 10 Gt, S24 Ultra: 12 Gt</t>
-  </si>
-  <si>
-    <t>S24: 8 Gt, S24+: 12 Gt, S24 Ultra: 12 Gt</t>
-  </si>
-  <si>
-    <t>Screen</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Mikä on S24-puhelinten näytön huippukirkkausarvo?</t>
-  </si>
-  <si>
-    <t>1 600 nitiä</t>
   </si>
   <si>
     <t>2 100 nitiä</t>
@@ -859,7 +862,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -898,9 +901,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="12"/>
-      <color indexed="14"/>
+      <color indexed="15"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1019,7 +1027,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,7 +1040,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1093,9 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,7 +1105,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1118,7 +1129,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1127,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1164,6 +1175,7 @@
       <rgbColor rgb="ff9ecbff"/>
       <rgbColor rgb="ffa9cd90"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffe1e4e8"/>
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
@@ -2305,81 +2317,81 @@
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
-      <c r="O2" t="s" s="11">
+      <c r="O2" t="s" s="14">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="17"/>
       <c r="K3" t="s" s="13">
         <v>24</v>
       </c>
       <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" ht="20.45" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="17"/>
       <c r="K4" t="s" s="13">
         <v>25</v>
       </c>
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" ht="20.45" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="16"/>
-      <c r="K5" t="s" s="17">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="17"/>
+      <c r="K5" t="s" s="18">
         <v>26</v>
       </c>
       <c r="L5" s="9">
         <v>1</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" ht="20.45" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s" s="10">
         <v>16</v>
       </c>
@@ -2395,8 +2407,8 @@
       <c r="H6" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" t="s" s="20">
+      <c r="I6" s="20"/>
+      <c r="J6" t="s" s="21">
         <v>29</v>
       </c>
       <c r="K6" t="s" s="13">
@@ -2405,88 +2417,88 @@
       <c r="L6" s="9">
         <v>0</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" ht="20.45" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="21"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="22"/>
       <c r="K7" t="s" s="13">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" ht="20.45" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="21"/>
-      <c r="K8" t="s" s="17">
-        <v>32</v>
+      <c r="A8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="22"/>
+      <c r="K8" t="s" s="18">
+        <v>33</v>
       </c>
       <c r="L8" s="9">
         <v>1</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" ht="20.45" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
       <c r="K9" t="s" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" ht="20.45" customHeight="1">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
       <c r="D10" t="s" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="11">
         <v>18</v>
@@ -2497,116 +2509,116 @@
       <c r="H10" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="19">
         <v>2</v>
       </c>
       <c r="J10" t="s" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" t="s" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="20.45" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="16"/>
-      <c r="K11" t="s" s="17">
-        <v>39</v>
+      <c r="A11" s="23"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="17"/>
+      <c r="K11" t="s" s="18">
+        <v>40</v>
       </c>
       <c r="L11" s="9">
         <v>1</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
     </row>
     <row r="12" ht="20.45" customHeight="1">
-      <c r="A12" s="18">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
       <c r="D12" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s" s="11">
-        <v>41</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <v>3</v>
       </c>
       <c r="J12" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="K12" t="s" s="17">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="K12" t="s" s="18">
+        <v>38</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
       <c r="O12" t="s" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="20.45" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="16"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="17"/>
       <c r="K13" t="s" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
     </row>
     <row r="14" ht="20.45" customHeight="1">
-      <c r="A14" s="18">
+      <c r="A14" s="19">
         <v>5</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
       <c r="D14" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="11">
         <v>18</v>
@@ -2617,104 +2629,104 @@
       <c r="H14" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <v>4</v>
       </c>
       <c r="J14" t="s" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
       <c r="O14" t="s" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="16"/>
-      <c r="K15" t="s" s="17">
-        <v>39</v>
+      <c r="A15" s="23"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="17"/>
+      <c r="K15" t="s" s="18">
+        <v>40</v>
       </c>
       <c r="L15" s="9">
         <v>1</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
     </row>
     <row r="16" ht="21" customHeight="1">
-      <c r="A16" s="18">
+      <c r="A16" s="19">
         <v>6</v>
       </c>
       <c r="B16" s="9">
         <v>1</v>
       </c>
       <c r="C16" t="s" s="10">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s" s="11">
-        <v>46</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+        <v>47</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>5</v>
       </c>
       <c r="J16" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="K16" t="s" s="17">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="K16" t="s" s="18">
+        <v>38</v>
       </c>
       <c r="L16" s="9">
         <v>1</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
       <c r="O16" t="s" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="20.45" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="16"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="17"/>
       <c r="K17" t="s" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" ht="20.45" customHeight="1">
       <c r="A18" s="9">
@@ -2723,12 +2735,12 @@
       <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
       <c r="D18" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="11">
         <v>18</v>
@@ -2739,86 +2751,86 @@
       <c r="H18" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="19">
         <v>6</v>
       </c>
-      <c r="J18" t="s" s="20">
-        <v>49</v>
+      <c r="J18" t="s" s="21">
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
       <c r="O18" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="20.45" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="21"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="22"/>
       <c r="K19" t="s" s="13">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" ht="20.45" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="22"/>
       <c r="K20" t="s" s="13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" ht="20.45" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" t="s" s="17">
-        <v>53</v>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L21" s="9">
         <v>1</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" ht="20.45" customHeight="1">
       <c r="A22" s="9">
@@ -2827,12 +2839,12 @@
       <c r="B22" s="9">
         <v>1</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
       <c r="D22" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E22" t="s" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="11">
         <v>18</v>
@@ -2843,86 +2855,86 @@
       <c r="H22" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="19">
         <v>7</v>
       </c>
       <c r="J22" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="K22" t="s" s="17">
         <v>56</v>
+      </c>
+      <c r="K22" t="s" s="18">
+        <v>57</v>
       </c>
       <c r="L22" s="9">
         <v>1</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="20.45" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
       <c r="K23" t="s" s="13">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" ht="20.45" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
       <c r="K24" t="s" s="13">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" ht="20.45" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="17"/>
       <c r="K25" t="s" s="13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" ht="20.45" customHeight="1">
       <c r="A26" s="9">
@@ -2931,12 +2943,12 @@
       <c r="B26" s="9">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s" s="11">
         <v>18</v>
@@ -2947,44 +2959,44 @@
       <c r="H26" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="19">
         <v>8</v>
       </c>
       <c r="J26" t="s" s="12">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L26" s="9">
         <v>0</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
       <c r="O26" t="s" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="20.45" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="16"/>
-      <c r="K27" t="s" s="17">
-        <v>39</v>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="17"/>
+      <c r="K27" t="s" s="18">
+        <v>40</v>
       </c>
       <c r="L27" s="9">
         <v>1</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" ht="20.45" customHeight="1">
       <c r="A28" s="9">
@@ -2993,70 +3005,70 @@
       <c r="B28" s="9">
         <v>1</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
       <c r="D28" t="s" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="18">
+        <v>64</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="19">
         <v>9</v>
       </c>
       <c r="J28" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="K28" t="s" s="17">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="K28" t="s" s="18">
+        <v>38</v>
       </c>
       <c r="L28" s="9">
         <v>1</v>
       </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
       <c r="O28" t="s" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="21" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="16"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="17"/>
       <c r="K29" t="s" s="13">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L29" s="9">
         <v>0</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" ht="21" customHeight="1">
       <c r="A30" s="9">
         <v>11</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
       <c r="C30" t="s" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s" s="11">
         <v>18</v>
@@ -3070,97 +3082,97 @@
       <c r="I30" s="9">
         <v>1</v>
       </c>
-      <c r="J30" t="s" s="20">
-        <v>67</v>
+      <c r="J30" t="s" s="21">
+        <v>68</v>
       </c>
       <c r="K30" t="s" s="13">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
       <c r="O30" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="20.45" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="21"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="22"/>
       <c r="K31" t="s" s="13">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="9">
         <v>0</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" ht="20.45" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="21"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="22"/>
       <c r="K32" t="s" s="13">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L32" s="9">
         <v>0</v>
       </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" ht="20.45" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="23"/>
-      <c r="K33" t="s" s="17">
-        <v>53</v>
+      <c r="A33" s="15"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="24"/>
+      <c r="K33" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L33" s="9">
         <v>1</v>
       </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
     </row>
     <row r="34" ht="20.45" customHeight="1">
-      <c r="A34" s="18">
+      <c r="A34" s="19">
         <v>12</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="19">
         <v>2</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="16"/>
       <c r="D34" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s" s="11">
         <v>18</v>
@@ -3175,96 +3187,96 @@
         <v>2</v>
       </c>
       <c r="J34" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="K34" s="24">
+        <v>73</v>
+      </c>
+      <c r="K34" s="25">
         <v>3</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
       </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
       <c r="O34" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" ht="20.45" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="24">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="25">
         <v>5</v>
       </c>
       <c r="L35" s="9">
         <v>0</v>
       </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
     </row>
     <row r="36" ht="20.45" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="26">
         <v>7</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
       </c>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
     </row>
     <row r="37" ht="20.45" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="24">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="25">
         <v>10</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
       </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
     </row>
     <row r="38" ht="20.45" customHeight="1">
-      <c r="A38" s="18">
+      <c r="A38" s="19">
         <v>13</v>
       </c>
       <c r="B38" s="9">
         <v>2</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="16"/>
       <c r="D38" t="s" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s" s="11">
         <v>18</v>
@@ -3279,96 +3291,96 @@
         <v>3</v>
       </c>
       <c r="J38" t="s" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="13">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
       </c>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
       <c r="O38" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="20.45" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="16"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="17"/>
       <c r="K39" t="s" s="13">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
       </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
     </row>
     <row r="40" ht="20.45" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="17"/>
       <c r="K40" t="s" s="13">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
       </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
     </row>
     <row r="41" ht="20.45" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="16"/>
-      <c r="K41" t="s" s="17">
-        <v>78</v>
+      <c r="A41" s="23"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="17"/>
+      <c r="K41" t="s" s="18">
+        <v>79</v>
       </c>
       <c r="L41" s="9">
         <v>1</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
     </row>
     <row r="42" ht="20.45" customHeight="1">
-      <c r="A42" s="18">
+      <c r="A42" s="19">
         <v>14</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="19">
         <v>2</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="16"/>
       <c r="D42" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s" s="11">
         <v>18</v>
@@ -3383,98 +3395,98 @@
         <v>4</v>
       </c>
       <c r="J42" t="s" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="13">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
       </c>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
       <c r="O42" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="20.45" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="17"/>
       <c r="K43" t="s" s="13">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
       </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
     </row>
     <row r="44" ht="20.45" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="16"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="17"/>
       <c r="K44" t="s" s="13">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
       </c>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
     </row>
     <row r="45" ht="21" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="16"/>
-      <c r="K45" t="s" s="17">
-        <v>53</v>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="17"/>
+      <c r="K45" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L45" s="9">
         <v>1</v>
       </c>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
     </row>
     <row r="46" ht="21" customHeight="1">
       <c r="A46" s="9">
         <v>15</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="19">
         <v>2</v>
       </c>
       <c r="C46" t="s" s="10">
-        <v>84</v>
-      </c>
-      <c r="D46" t="s" s="26">
         <v>85</v>
       </c>
-      <c r="E46" t="s" s="26">
+      <c r="D46" t="s" s="27">
         <v>86</v>
+      </c>
+      <c r="E46" t="s" s="27">
+        <v>87</v>
       </c>
       <c r="F46" t="s" s="11">
         <v>18</v>
@@ -3489,96 +3501,96 @@
         <v>5</v>
       </c>
       <c r="J46" t="s" s="12">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="12">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
       </c>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
       <c r="O46" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="20.45" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="16"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="17"/>
       <c r="K47" t="s" s="12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
       </c>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
     </row>
     <row r="48" ht="20.45" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="16"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="17"/>
       <c r="K48" t="s" s="12">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
       </c>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
     </row>
     <row r="49" ht="20.45" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="16"/>
-      <c r="K49" t="s" s="28">
-        <v>53</v>
+      <c r="A49" s="15"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="17"/>
+      <c r="K49" t="s" s="29">
+        <v>54</v>
       </c>
       <c r="L49" s="9">
         <v>1</v>
       </c>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
     </row>
     <row r="50" ht="20.45" customHeight="1">
       <c r="A50" s="9">
         <v>16</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="19">
         <v>2</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" t="s" s="26">
-        <v>85</v>
-      </c>
-      <c r="E50" t="s" s="26">
+      <c r="C50" s="16"/>
+      <c r="D50" t="s" s="27">
         <v>86</v>
+      </c>
+      <c r="E50" t="s" s="27">
+        <v>87</v>
       </c>
       <c r="F50" t="s" s="11">
         <v>18</v>
@@ -3593,96 +3605,96 @@
         <v>6</v>
       </c>
       <c r="J50" t="s" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L50" s="9">
         <v>0</v>
       </c>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
       <c r="O50" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="20.45" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="16"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="17"/>
       <c r="K51" t="s" s="12">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L51" s="9">
         <v>0</v>
       </c>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
     </row>
     <row r="52" ht="20.45" customHeight="1">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="16"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="17"/>
       <c r="K52" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L52" s="9">
         <v>0</v>
       </c>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
     </row>
     <row r="53" ht="20.45" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="16"/>
-      <c r="K53" t="s" s="28">
-        <v>53</v>
+      <c r="A53" s="15"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="17"/>
+      <c r="K53" t="s" s="29">
+        <v>54</v>
       </c>
       <c r="L53" s="9">
         <v>1</v>
       </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
     </row>
     <row r="54" ht="20.45" customHeight="1">
       <c r="A54" s="9">
         <v>17</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="19">
         <v>2</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="16"/>
       <c r="D54" t="s" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s" s="11">
         <v>18</v>
@@ -3697,98 +3709,98 @@
         <v>7</v>
       </c>
       <c r="J54" t="s" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s" s="13">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L54" s="9">
         <v>0</v>
       </c>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
       <c r="O54" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="20.45" customHeight="1">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="16"/>
-      <c r="K55" t="s" s="17">
-        <v>92</v>
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="17"/>
+      <c r="K55" t="s" s="18">
+        <v>93</v>
       </c>
       <c r="L55" s="9">
         <v>1</v>
       </c>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
     </row>
     <row r="56" ht="20.45" customHeight="1">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="16"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="17"/>
       <c r="K56" t="s" s="13">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
       </c>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
     </row>
     <row r="57" ht="21" customHeight="1">
-      <c r="A57" s="14"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="16"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="17"/>
       <c r="K57" t="s" s="13">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L57" s="9">
         <v>0</v>
       </c>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
     </row>
     <row r="58" ht="21" customHeight="1">
       <c r="A58" s="9">
         <v>18</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="19">
         <v>2</v>
       </c>
       <c r="C58" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s" s="11">
         <v>18</v>
@@ -3803,99 +3815,99 @@
         <v>8</v>
       </c>
       <c r="J58" t="s" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="13">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L58" s="9">
         <v>0</v>
       </c>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
       <c r="O58" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="20.45" customHeight="1">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="16"/>
-      <c r="K59" t="s" s="17">
-        <v>105</v>
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="17"/>
+      <c r="K59" t="s" s="18">
+        <v>106</v>
       </c>
       <c r="L59" s="9">
         <v>1</v>
       </c>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
     </row>
     <row r="60" ht="20.45" customHeight="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="16"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="17"/>
       <c r="K60" t="s" s="13">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L60" s="9">
         <v>0</v>
       </c>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" ht="20.45" customHeight="1">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="16"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="17"/>
       <c r="K61" t="s" s="13">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
       </c>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
     </row>
     <row r="62" ht="20.45" customHeight="1">
       <c r="A62" s="9">
         <v>19</v>
       </c>
-      <c r="B62" s="29">
+      <c r="B62" s="30">
         <v>2</v>
       </c>
-      <c r="C62" s="15"/>
+      <c r="C62" s="16"/>
       <c r="D62" t="s" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F62" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G62" t="s" s="11">
         <v>19</v>
@@ -3907,99 +3919,99 @@
         <v>9</v>
       </c>
       <c r="J62" t="s" s="12">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K62" t="s" s="13">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L62" s="9">
         <v>0</v>
       </c>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
       <c r="O62" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="20.45" customHeight="1">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="16"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="17"/>
       <c r="K63" t="s" s="13">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L63" s="9">
         <v>0</v>
       </c>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
     </row>
     <row r="64" ht="20.45" customHeight="1">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="16"/>
-      <c r="K64" t="s" s="17">
-        <v>114</v>
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="17"/>
+      <c r="K64" t="s" s="18">
+        <v>115</v>
       </c>
       <c r="L64" s="9">
         <v>1</v>
       </c>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
     </row>
     <row r="65" ht="20.45" customHeight="1">
-      <c r="A65" s="14"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="16"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="17"/>
       <c r="K65" t="s" s="13">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L65" s="9">
         <v>0</v>
       </c>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
     </row>
     <row r="66" ht="20.45" customHeight="1">
       <c r="A66" s="9">
         <v>20</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="19">
         <v>2</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="16"/>
       <c r="D66" t="s" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" t="s" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s" s="11">
         <v>19</v>
@@ -4011,99 +4023,99 @@
         <v>10</v>
       </c>
       <c r="J66" t="s" s="12">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K66" t="s" s="13">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
       </c>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
       <c r="O66" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="20.45" customHeight="1">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="16"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="17"/>
       <c r="K67" t="s" s="13">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L67" s="9">
         <v>0</v>
       </c>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
     </row>
     <row r="68" ht="20.45" customHeight="1">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="16"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="17"/>
       <c r="K68" t="s" s="13">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L68" s="9">
         <v>0</v>
       </c>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
     </row>
     <row r="69" ht="20.45" customHeight="1">
-      <c r="A69" s="14"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="16"/>
-      <c r="K69" t="s" s="17">
-        <v>121</v>
+      <c r="A69" s="15"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="17"/>
+      <c r="K69" t="s" s="18">
+        <v>122</v>
       </c>
       <c r="L69" s="9">
         <v>1</v>
       </c>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
     </row>
     <row r="70" ht="20.45" customHeight="1">
       <c r="A70" s="9">
         <v>21</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="19">
         <v>3</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="16"/>
       <c r="D70" t="s" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F70" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s" s="11">
         <v>19</v>
@@ -4115,101 +4127,101 @@
         <v>1</v>
       </c>
       <c r="J70" t="s" s="12">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K70" t="s" s="13">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L70" s="9">
         <v>0</v>
       </c>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
       <c r="O70" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="20.45" customHeight="1">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="16"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="17"/>
       <c r="K71" t="s" s="13">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L71" s="9">
         <v>0</v>
       </c>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
     </row>
     <row r="72" ht="20.45" customHeight="1">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="16"/>
-      <c r="K72" t="s" s="17">
-        <v>126</v>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="17"/>
+      <c r="K72" t="s" s="18">
+        <v>127</v>
       </c>
       <c r="L72" s="9">
         <v>1</v>
       </c>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
     </row>
     <row r="73" ht="21" customHeight="1">
-      <c r="A73" s="14"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="16"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="17"/>
       <c r="K73" t="s" s="13">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L73" s="9">
         <v>0</v>
       </c>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
     </row>
     <row r="74" ht="21" customHeight="1">
       <c r="A74" s="9">
         <v>22</v>
       </c>
-      <c r="B74" s="18">
+      <c r="B74" s="19">
         <v>3</v>
       </c>
       <c r="C74" t="s" s="10">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D74" t="s" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F74" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G74" t="s" s="11">
         <v>19</v>
@@ -4221,99 +4233,99 @@
         <v>2</v>
       </c>
       <c r="J74" t="s" s="12">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s" s="13">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L74" s="9">
         <v>0</v>
       </c>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
       <c r="O74" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="20.45" customHeight="1">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="16"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="17"/>
       <c r="K75" t="s" s="13">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L75" s="9">
         <v>0</v>
       </c>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
     </row>
     <row r="76" ht="20.45" customHeight="1">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="16"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="17"/>
       <c r="K76" t="s" s="13">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L76" s="9">
         <v>0</v>
       </c>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
     </row>
     <row r="77" ht="20.45" customHeight="1">
-      <c r="A77" s="14"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="16"/>
-      <c r="K77" t="s" s="17">
-        <v>53</v>
+      <c r="A77" s="15"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="17"/>
+      <c r="K77" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L77" s="9">
         <v>1</v>
       </c>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
     </row>
     <row r="78" ht="20.45" customHeight="1">
       <c r="A78" s="9">
         <v>23</v>
       </c>
-      <c r="B78" s="18">
+      <c r="B78" s="19">
         <v>3</v>
       </c>
-      <c r="C78" s="15"/>
+      <c r="C78" s="16"/>
       <c r="D78" t="s" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G78" t="s" s="11">
         <v>19</v>
@@ -4325,99 +4337,99 @@
         <v>3</v>
       </c>
       <c r="J78" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="K78" t="s" s="17">
-        <v>46</v>
+        <v>136</v>
+      </c>
+      <c r="K78" t="s" s="18">
+        <v>47</v>
       </c>
       <c r="L78" s="9">
         <v>1</v>
       </c>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
       <c r="O78" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="20.45" customHeight="1">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="16"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="17"/>
       <c r="K79" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L79" s="9">
         <v>0</v>
       </c>
-      <c r="M79" s="14"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="14"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
     </row>
     <row r="80" ht="20.45" customHeight="1">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="16"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="17"/>
       <c r="K80" t="s" s="13">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L80" s="9">
         <v>0</v>
       </c>
-      <c r="M80" s="14"/>
-      <c r="N80" s="14"/>
-      <c r="O80" s="14"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
     </row>
     <row r="81" ht="20.45" customHeight="1">
-      <c r="A81" s="14"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="16"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="17"/>
       <c r="K81" t="s" s="13">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L81" s="9">
         <v>0</v>
       </c>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
     </row>
     <row r="82" ht="20.45" customHeight="1">
       <c r="A82" s="9">
         <v>24</v>
       </c>
-      <c r="B82" s="18">
+      <c r="B82" s="19">
         <v>3</v>
       </c>
-      <c r="C82" s="15"/>
+      <c r="C82" s="16"/>
       <c r="D82" t="s" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E82" t="s" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F82" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G82" t="s" s="11">
         <v>19</v>
@@ -4429,99 +4441,99 @@
         <v>4</v>
       </c>
       <c r="J82" t="s" s="12">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K82" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L82" s="9">
         <v>0</v>
       </c>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
       <c r="O82" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="20.45" customHeight="1">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="16"/>
-      <c r="K83" t="s" s="17">
-        <v>78</v>
+      <c r="A83" s="15"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="17"/>
+      <c r="K83" t="s" s="18">
+        <v>79</v>
       </c>
       <c r="L83" s="9">
         <v>1</v>
       </c>
-      <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
     </row>
     <row r="84" ht="20.45" customHeight="1">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="16"/>
+      <c r="A84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="17"/>
       <c r="K84" t="s" s="13">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L84" s="9">
         <v>0</v>
       </c>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
     </row>
     <row r="85" ht="20.45" customHeight="1">
-      <c r="A85" s="14"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="16"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="17"/>
       <c r="K85" t="s" s="13">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L85" s="9">
         <v>0</v>
       </c>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
     </row>
     <row r="86" ht="20.45" customHeight="1">
       <c r="A86" s="9">
         <v>25</v>
       </c>
-      <c r="B86" s="18">
+      <c r="B86" s="19">
         <v>3</v>
       </c>
-      <c r="C86" s="15"/>
+      <c r="C86" s="16"/>
       <c r="D86" t="s" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G86" t="s" s="11">
         <v>19</v>
@@ -4533,99 +4545,99 @@
         <v>5</v>
       </c>
       <c r="J86" t="s" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K86" t="s" s="13">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L86" s="9">
         <v>0</v>
       </c>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
       <c r="O86" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="20.45" customHeight="1">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="16"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="17"/>
       <c r="K87" t="s" s="13">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L87" s="9">
         <v>0</v>
       </c>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
     </row>
     <row r="88" ht="20.45" customHeight="1">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="16"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="17"/>
       <c r="K88" t="s" s="13">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L88" s="9">
         <v>0</v>
       </c>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
     </row>
     <row r="89" ht="20.45" customHeight="1">
-      <c r="A89" s="14"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="16"/>
-      <c r="K89" t="s" s="17">
-        <v>53</v>
+      <c r="A89" s="15"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="17"/>
+      <c r="K89" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L89" s="9">
         <v>1</v>
       </c>
-      <c r="M89" s="14"/>
-      <c r="N89" s="14"/>
-      <c r="O89" s="14"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
     </row>
     <row r="90" ht="20.45" customHeight="1">
       <c r="A90" s="9">
         <v>28</v>
       </c>
-      <c r="B90" s="18">
+      <c r="B90" s="19">
         <v>3</v>
       </c>
-      <c r="C90" s="15"/>
+      <c r="C90" s="16"/>
       <c r="D90" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E90" t="s" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G90" t="s" s="11">
         <v>19</v>
@@ -4637,99 +4649,99 @@
         <v>6</v>
       </c>
       <c r="J90" t="s" s="12">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K90" t="s" s="13">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L90" s="9">
         <v>0</v>
       </c>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
       <c r="O90" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="20.45" customHeight="1">
-      <c r="A91" s="14"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="16"/>
-      <c r="K91" t="s" s="17">
-        <v>147</v>
+      <c r="A91" s="15"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="17"/>
+      <c r="K91" t="s" s="18">
+        <v>148</v>
       </c>
       <c r="L91" s="9">
         <v>1</v>
       </c>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
     </row>
     <row r="92" ht="20.45" customHeight="1">
-      <c r="A92" s="14"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="16"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="17"/>
       <c r="K92" t="s" s="13">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L92" s="9">
         <v>0</v>
       </c>
-      <c r="M92" s="14"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="14"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
     </row>
     <row r="93" ht="20.45" customHeight="1">
-      <c r="A93" s="14"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="16"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="17"/>
       <c r="K93" t="s" s="13">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L93" s="9">
         <v>0</v>
       </c>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
     </row>
     <row r="94" ht="20.45" customHeight="1">
       <c r="A94" s="9">
         <v>29</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="19">
         <v>3</v>
       </c>
-      <c r="C94" s="15"/>
+      <c r="C94" s="16"/>
       <c r="D94" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E94" t="s" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F94" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G94" t="s" s="11">
         <v>19</v>
@@ -4741,99 +4753,99 @@
         <v>7</v>
       </c>
       <c r="J94" t="s" s="12">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K94" t="s" s="13">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L94" s="9">
         <v>0</v>
       </c>
-      <c r="M94" s="14"/>
-      <c r="N94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
       <c r="O94" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" ht="20.45" customHeight="1">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="16"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="17"/>
       <c r="K95" t="s" s="13">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L95" s="9">
         <v>0</v>
       </c>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
     </row>
     <row r="96" ht="20.45" customHeight="1">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="16"/>
+      <c r="A96" s="15"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="17"/>
       <c r="K96" t="s" s="13">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L96" s="9">
         <v>0</v>
       </c>
-      <c r="M96" s="14"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
     </row>
     <row r="97" ht="20.45" customHeight="1">
-      <c r="A97" s="14"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="16"/>
-      <c r="K97" t="s" s="17">
-        <v>53</v>
+      <c r="A97" s="15"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="17"/>
+      <c r="K97" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L97" s="9">
         <v>1</v>
       </c>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
-      <c r="O97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
     </row>
     <row r="98" ht="20.45" customHeight="1">
       <c r="A98" s="9">
         <v>30</v>
       </c>
-      <c r="B98" s="18">
+      <c r="B98" s="19">
         <v>3</v>
       </c>
-      <c r="C98" s="15"/>
+      <c r="C98" s="16"/>
       <c r="D98" t="s" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F98" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G98" t="s" s="11">
         <v>19</v>
@@ -4845,99 +4857,99 @@
         <v>8</v>
       </c>
       <c r="J98" t="s" s="12">
-        <v>154</v>
-      </c>
-      <c r="K98" t="s" s="17">
-        <v>46</v>
+        <v>155</v>
+      </c>
+      <c r="K98" t="s" s="18">
+        <v>47</v>
       </c>
       <c r="L98" s="9">
         <v>1</v>
       </c>
-      <c r="M98" s="14"/>
-      <c r="N98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
       <c r="O98" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="20.45" customHeight="1">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="16"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="17"/>
       <c r="K99" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L99" s="9">
         <v>0</v>
       </c>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
     </row>
     <row r="100" ht="20.45" customHeight="1">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="16"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="17"/>
       <c r="K100" t="s" s="13">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L100" s="9">
         <v>0</v>
       </c>
-      <c r="M100" s="14"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
     </row>
     <row r="101" ht="20.45" customHeight="1">
-      <c r="A101" s="14"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="16"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="17"/>
       <c r="K101" t="s" s="13">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L101" s="9">
         <v>0</v>
       </c>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
-      <c r="O101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
     </row>
     <row r="102" ht="20.45" customHeight="1">
       <c r="A102" s="9">
         <v>31</v>
       </c>
-      <c r="B102" s="18">
+      <c r="B102" s="19">
         <v>4</v>
       </c>
-      <c r="C102" s="15"/>
+      <c r="C102" s="16"/>
       <c r="D102" t="s" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F102" t="s" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G102" t="s" s="11">
         <v>19</v>
@@ -4949,101 +4961,101 @@
         <v>1</v>
       </c>
       <c r="J102" t="s" s="12">
-        <v>158</v>
-      </c>
-      <c r="K102" t="s" s="17">
         <v>159</v>
+      </c>
+      <c r="K102" t="s" s="18">
+        <v>160</v>
       </c>
       <c r="L102" s="9">
         <v>1</v>
       </c>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
       <c r="O102" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="20.45" customHeight="1">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="16"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="17"/>
       <c r="K103" t="s" s="13">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L103" s="9">
         <v>0</v>
       </c>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
     </row>
     <row r="104" ht="20.45" customHeight="1">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="16"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="17"/>
       <c r="K104" t="s" s="13">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L104" s="9">
         <v>0</v>
       </c>
-      <c r="M104" s="14"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
     </row>
     <row r="105" ht="21" customHeight="1">
-      <c r="A105" s="14"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="16"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="17"/>
       <c r="K105" t="s" s="13">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L105" s="9">
         <v>0</v>
       </c>
-      <c r="M105" s="14"/>
-      <c r="N105" s="14"/>
-      <c r="O105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
     </row>
     <row r="106" ht="21" customHeight="1">
-      <c r="A106" s="18">
+      <c r="A106" s="19">
         <v>32</v>
       </c>
-      <c r="B106" s="18">
+      <c r="B106" s="19">
         <v>4</v>
       </c>
       <c r="C106" t="s" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D106" t="s" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E106" t="s" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F106" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G106" t="s" s="11">
         <v>19</v>
@@ -5055,203 +5067,203 @@
         <v>2</v>
       </c>
       <c r="J106" t="s" s="12">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K106" t="s" s="13">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L106" s="9">
         <v>0</v>
       </c>
-      <c r="M106" s="14"/>
-      <c r="N106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
       <c r="O106" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" ht="20.45" customHeight="1">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="16"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="17"/>
       <c r="K107" t="s" s="13">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L107" s="9">
         <v>0</v>
       </c>
-      <c r="M107" s="14"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
     </row>
     <row r="108" ht="20.45" customHeight="1">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="16"/>
-      <c r="K108" t="s" s="17">
-        <v>169</v>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="17"/>
+      <c r="K108" t="s" s="18">
+        <v>170</v>
       </c>
       <c r="L108" s="9">
         <v>1</v>
       </c>
-      <c r="M108" s="14"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
     </row>
     <row r="109" ht="20.45" customHeight="1">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="16"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="17"/>
       <c r="K109" t="s" s="13">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L109" s="9">
         <v>0</v>
       </c>
-      <c r="M109" s="14"/>
-      <c r="N109" s="14"/>
-      <c r="O109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
     </row>
     <row r="110" ht="20.45" customHeight="1">
-      <c r="A110" s="18">
+      <c r="A110" s="19">
         <v>33</v>
       </c>
-      <c r="B110" s="18">
+      <c r="B110" s="19">
         <v>4</v>
       </c>
-      <c r="C110" s="15"/>
+      <c r="C110" s="16"/>
       <c r="D110" t="s" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E110" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F110" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G110" t="s" s="11">
         <v>19</v>
       </c>
       <c r="H110" t="s" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I110" s="9">
         <v>3</v>
       </c>
       <c r="J110" t="s" s="12">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K110" t="s" s="13">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L110" s="9">
         <v>0</v>
       </c>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
       <c r="O110" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" ht="20.45" customHeight="1">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="16"/>
-      <c r="K111" t="s" s="17">
-        <v>175</v>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="17"/>
+      <c r="K111" t="s" s="18">
+        <v>176</v>
       </c>
       <c r="L111" s="9">
         <v>1</v>
       </c>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
     </row>
     <row r="112" ht="20.45" customHeight="1">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="16"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="17"/>
       <c r="K112" t="s" s="13">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L112" s="9">
         <v>0</v>
       </c>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
     </row>
     <row r="113" ht="20.45" customHeight="1">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="16"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="17"/>
       <c r="K113" t="s" s="13">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L113" s="9">
         <v>0</v>
       </c>
-      <c r="M113" s="14"/>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
     </row>
     <row r="114" ht="20.45" customHeight="1">
-      <c r="A114" s="18">
+      <c r="A114" s="19">
         <v>34</v>
       </c>
-      <c r="B114" s="18">
+      <c r="B114" s="19">
         <v>4</v>
       </c>
-      <c r="C114" s="15"/>
+      <c r="C114" s="16"/>
       <c r="D114" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E114" t="s" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F114" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G114" t="s" s="11">
         <v>19</v>
@@ -5263,99 +5275,99 @@
         <v>4</v>
       </c>
       <c r="J114" t="s" s="12">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K114" t="s" s="13">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L114" s="9">
         <v>0</v>
       </c>
-      <c r="M114" s="14"/>
-      <c r="N114" s="14"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
       <c r="O114" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" ht="20.45" customHeight="1">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="16"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="17"/>
       <c r="K115" t="s" s="13">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L115" s="9">
         <v>0</v>
       </c>
-      <c r="M115" s="14"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="14"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
     </row>
     <row r="116" ht="20.45" customHeight="1">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="16"/>
-      <c r="K116" t="s" s="17">
-        <v>181</v>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="17"/>
+      <c r="K116" t="s" s="18">
+        <v>182</v>
       </c>
       <c r="L116" s="9">
         <v>1</v>
       </c>
-      <c r="M116" s="14"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="14"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
     </row>
     <row r="117" ht="20.45" customHeight="1">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="16"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="17"/>
       <c r="K117" t="s" s="13">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L117" s="9">
         <v>0</v>
       </c>
-      <c r="M117" s="14"/>
-      <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
     </row>
     <row r="118" ht="20.45" customHeight="1">
-      <c r="A118" s="18">
+      <c r="A118" s="19">
         <v>35</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="19">
         <v>4</v>
       </c>
-      <c r="C118" s="15"/>
+      <c r="C118" s="16"/>
       <c r="D118" t="s" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E118" t="s" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F118" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G118" t="s" s="11">
         <v>19</v>
@@ -5367,91 +5379,91 @@
         <v>5</v>
       </c>
       <c r="J118" t="s" s="12">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K118" t="s" s="13">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L118" s="9">
         <v>0</v>
       </c>
-      <c r="M118" s="14"/>
-      <c r="N118" s="14"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
       <c r="O118" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" ht="20.45" customHeight="1">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="16"/>
-      <c r="K119" t="s" s="17">
-        <v>186</v>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="17"/>
+      <c r="K119" t="s" s="18">
+        <v>187</v>
       </c>
       <c r="L119" s="9">
         <v>1</v>
       </c>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="14"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
     </row>
     <row r="120" ht="20.45" customHeight="1">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="16"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="17"/>
       <c r="K120" t="s" s="13">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L120" s="9">
         <v>0</v>
       </c>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
     </row>
     <row r="121" ht="20.45" customHeight="1">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="16"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="23"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="17"/>
       <c r="K121" t="s" s="13">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L121" s="9">
         <v>0</v>
       </c>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="14"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
     </row>
     <row r="122" ht="20.45" customHeight="1">
-      <c r="A122" s="18">
+      <c r="A122" s="19">
         <v>36</v>
       </c>
-      <c r="B122" s="18">
+      <c r="B122" s="19">
         <v>4</v>
       </c>
-      <c r="C122" s="15"/>
+      <c r="C122" s="16"/>
       <c r="D122" t="s" s="11">
         <v>16</v>
       </c>
@@ -5459,7 +5471,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G122" t="s" s="11">
         <v>19</v>
@@ -5471,99 +5483,99 @@
         <v>6</v>
       </c>
       <c r="J122" t="s" s="12">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K122" t="s" s="13">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L122" s="9">
         <v>0</v>
       </c>
-      <c r="M122" s="14"/>
-      <c r="N122" s="14"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
       <c r="O122" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" ht="20.45" customHeight="1">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="16"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="17"/>
       <c r="K123" t="s" s="13">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L123" s="9">
         <v>0</v>
       </c>
-      <c r="M123" s="14"/>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
     </row>
     <row r="124" ht="20.45" customHeight="1">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="16"/>
-      <c r="K124" t="s" s="17">
-        <v>192</v>
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="17"/>
+      <c r="K124" t="s" s="18">
+        <v>193</v>
       </c>
       <c r="L124" s="9">
         <v>1</v>
       </c>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
     </row>
     <row r="125" ht="21" customHeight="1">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="16"/>
+      <c r="A125" s="23"/>
+      <c r="B125" s="23"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="17"/>
       <c r="K125" t="s" s="13">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L125" s="9">
         <v>0</v>
       </c>
-      <c r="M125" s="14"/>
-      <c r="N125" s="14"/>
-      <c r="O125" s="14"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
     </row>
     <row r="126" ht="21" customHeight="1">
       <c r="A126" s="9">
         <v>37</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="19">
         <v>4</v>
       </c>
       <c r="C126" t="s" s="10">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D126" t="s" s="11">
-        <v>195</v>
-      </c>
-      <c r="E126" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="E126" s="15"/>
       <c r="F126" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G126" t="s" s="11">
         <v>19</v>
@@ -5574,98 +5586,98 @@
       <c r="I126" s="9">
         <v>7</v>
       </c>
-      <c r="J126" t="s" s="20">
-        <v>196</v>
+      <c r="J126" t="s" s="21">
+        <v>197</v>
       </c>
       <c r="K126" t="s" s="13">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L126" s="9">
         <v>0</v>
       </c>
-      <c r="M126" s="14"/>
-      <c r="N126" s="14"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
       <c r="O126" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" ht="20.45" customHeight="1">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="21"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="22"/>
       <c r="K127" t="s" s="13">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L127" s="9">
         <v>0</v>
       </c>
-      <c r="M127" s="14"/>
-      <c r="N127" s="14"/>
-      <c r="O127" s="14"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
     </row>
     <row r="128" ht="20.45" customHeight="1">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="21"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="22"/>
       <c r="K128" t="s" s="13">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L128" s="9">
         <v>0</v>
       </c>
-      <c r="M128" s="14"/>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
     </row>
     <row r="129" ht="20.45" customHeight="1">
-      <c r="A129" s="14"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="23"/>
-      <c r="K129" t="s" s="17">
-        <v>200</v>
+      <c r="A129" s="15"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="24"/>
+      <c r="K129" t="s" s="18">
+        <v>201</v>
       </c>
       <c r="L129" s="9">
         <v>1</v>
       </c>
-      <c r="M129" s="14"/>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
     </row>
     <row r="130" ht="20.45" customHeight="1">
       <c r="A130" s="9">
         <v>38</v>
       </c>
-      <c r="B130" s="18">
+      <c r="B130" s="19">
         <v>4</v>
       </c>
-      <c r="C130" s="15"/>
+      <c r="C130" s="16"/>
       <c r="D130" t="s" s="11">
-        <v>195</v>
-      </c>
-      <c r="E130" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="E130" s="15"/>
       <c r="F130" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G130" t="s" s="11">
         <v>19</v>
@@ -5677,97 +5689,97 @@
         <v>8</v>
       </c>
       <c r="J130" t="s" s="12">
-        <v>201</v>
-      </c>
-      <c r="K130" t="s" s="17">
-        <v>78</v>
+        <v>202</v>
+      </c>
+      <c r="K130" t="s" s="18">
+        <v>79</v>
       </c>
       <c r="L130" s="9">
         <v>1</v>
       </c>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
       <c r="O130" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="131" ht="20.45" customHeight="1">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="16"/>
+      <c r="A131" s="15"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="17"/>
       <c r="K131" t="s" s="13">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L131" s="9">
         <v>0</v>
       </c>
-      <c r="M131" s="14"/>
-      <c r="N131" s="14"/>
-      <c r="O131" s="14"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
     </row>
     <row r="132" ht="20.45" customHeight="1">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="16"/>
+      <c r="A132" s="15"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="17"/>
       <c r="K132" t="s" s="13">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L132" s="9">
         <v>0</v>
       </c>
-      <c r="M132" s="14"/>
-      <c r="N132" s="14"/>
-      <c r="O132" s="14"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
     </row>
     <row r="133" ht="20.45" customHeight="1">
-      <c r="A133" s="14"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="16"/>
+      <c r="A133" s="15"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="17"/>
       <c r="K133" t="s" s="13">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L133" s="9">
         <v>0</v>
       </c>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
     </row>
     <row r="134" ht="20.45" customHeight="1">
       <c r="A134" s="9">
         <v>39</v>
       </c>
-      <c r="B134" s="18">
+      <c r="B134" s="19">
         <v>4</v>
       </c>
-      <c r="C134" s="15"/>
+      <c r="C134" s="16"/>
       <c r="D134" t="s" s="11">
-        <v>195</v>
-      </c>
-      <c r="E134" s="14"/>
+        <v>196</v>
+      </c>
+      <c r="E134" s="15"/>
       <c r="F134" t="s" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G134" t="s" s="11">
         <v>19</v>
@@ -5779,82 +5791,82 @@
         <v>9</v>
       </c>
       <c r="J134" t="s" s="12">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K134" t="s" s="13">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L134" s="9">
         <v>0</v>
       </c>
-      <c r="M134" s="14"/>
-      <c r="N134" s="14"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
       <c r="O134" t="s" s="11">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135" ht="20.45" customHeight="1">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="16"/>
+      <c r="A135" s="15"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="17"/>
       <c r="K135" t="s" s="13">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L135" s="9">
         <v>0</v>
       </c>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
     </row>
     <row r="136" ht="20.45" customHeight="1">
-      <c r="A136" s="14"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="16"/>
+      <c r="A136" s="15"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="17"/>
       <c r="K136" t="s" s="13">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L136" s="9">
         <v>0</v>
       </c>
-      <c r="M136" s="14"/>
-      <c r="N136" s="14"/>
-      <c r="O136" s="14"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
     </row>
     <row r="137" ht="20.45" customHeight="1">
-      <c r="A137" s="30"/>
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="32"/>
-      <c r="K137" t="s" s="17">
-        <v>53</v>
+      <c r="A137" s="31"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="33"/>
+      <c r="K137" t="s" s="18">
+        <v>54</v>
       </c>
       <c r="L137" s="9">
         <v>1</v>
       </c>
-      <c r="M137" s="14"/>
-      <c r="N137" s="14"/>
-      <c r="O137" s="14"/>
+      <c r="M137" s="15"/>
+      <c r="N137" s="15"/>
+      <c r="O137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="371">
